--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week33/BSS_EffortLog_HienNguyen_Week33.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week33/BSS_EffortLog_HienNguyen_Week33.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -48,40 +48,37 @@
     <t>Mentor Meeting</t>
   </si>
   <si>
-    <t>Training Technical</t>
-  </si>
-  <si>
-    <t>WEEK: 24</t>
-  </si>
-  <si>
-    <t>Implement "Arrange Banner" function on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "Create Popups" function on server </t>
-  </si>
-  <si>
-    <t>Implement "Arrange Popups" function on server</t>
-  </si>
-  <si>
-    <t>Research publish code to server</t>
-  </si>
-  <si>
-    <t>13/3/2017</t>
-  </si>
-  <si>
     <t>14/3/2017</t>
   </si>
   <si>
-    <t>15/3/2017</t>
+    <t>Change image server on editor</t>
   </si>
   <si>
-    <t>17/3/2017</t>
+    <t>Modify "Architecture and design" document-physical view</t>
   </si>
   <si>
-    <t>18/3/2017</t>
+    <t>Technical training</t>
   </si>
   <si>
-    <t>16/3/2017</t>
+    <t>Modify "Detail design" document</t>
+  </si>
+  <si>
+    <t>15/5/2017</t>
+  </si>
+  <si>
+    <t>17/5/2017</t>
+  </si>
+  <si>
+    <t>19/5/2017</t>
+  </si>
+  <si>
+    <t>16/5/2017</t>
+  </si>
+  <si>
+    <t>20/5/2017</t>
+  </si>
+  <si>
+    <t>WEEK: 33</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +533,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +584,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -693,11 +690,11 @@
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -732,19 +729,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10">
-        <v>16</v>
-      </c>
       <c r="H6" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -773,19 +770,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H7" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -814,19 +811,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H8" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -855,19 +852,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H9" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -896,16 +893,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="10">
         <v>8</v>
@@ -933,24 +930,12 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="12">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10">
-        <v>3</v>
-      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
